--- a/biology/Zoologie/Caeruleuptychia_caerulea/Caeruleuptychia_caerulea.xlsx
+++ b/biology/Zoologie/Caeruleuptychia_caerulea/Caeruleuptychia_caerulea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caeruleuptychia caerulea est une espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae et du genre Caeruleuptychia.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caeruleuptychia caerulea a été décrit par l'entomologiste  Arthur Gardiner Butler en 1869 sous le nom initial d' Euptychia caerulea[1].
-Nom vernaculaire
-Caeruleuptychia caerulea se nomme Caerulea Satyr en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caeruleuptychia caerulea a été décrit par l'entomologiste  Arthur Gardiner Butler en 1869 sous le nom initial d' Euptychia caerulea.
 </t>
         </is>
       </c>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caeruleuptychia caerulea est un papillon qui doit soit nom à sa couleur bleu céruléen. Le dessus est bleu avec aux ailes antérieures une bordure costale et externe gris foncé à marron noir.
-Le revers est bleu, rayé de lignes foncées, un petit ocelle à l'apex des ailes antérieures et un autre proche de l'angle anal aux ailes postérieures[3].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caeruleuptychia caerulea se nomme Caerulea Satyr en anglais.
 </t>
         </is>
       </c>
@@ -573,12 +590,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane il vole en mars avril puis de septembre à décembre[3].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caeruleuptychia caerulea est un papillon qui doit soit nom à sa couleur bleu céruléen. Le dessus est bleu avec aux ailes antérieures une bordure costale et externe gris foncé à marron noir.
+Le revers est bleu, rayé de lignes foncées, un petit ocelle à l'apex des ailes antérieures et un autre proche de l'angle anal aux ailes postérieures.
 </t>
         </is>
       </c>
@@ -604,16 +624,121 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane il vole en mars avril puis de septembre à décembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Caeruleuptychia_caerulea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caeruleuptychia_caerulea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caeruleuptychia caerulea est présent au Brésil et en Guyane[1],[3].
-Biotope
-Caeruleuptychia caerulea réside en zone de chablis de forêt primaire[3].
-Protection
-Pas de statut de protection particulier
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caeruleuptychia caerulea est présent au Brésil et en Guyane,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Caeruleuptychia_caerulea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caeruleuptychia_caerulea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caeruleuptychia caerulea réside en zone de chablis de forêt primaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Caeruleuptychia_caerulea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caeruleuptychia_caerulea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 </t>
         </is>
       </c>
